--- a/Wiki/Mimic_BOM_Template.xlsx
+++ b/Wiki/Mimic_BOM_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru733d\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51A1622-42E3-42C7-BAB1-3A3CE409BB9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02006A2-2758-4A17-AA8C-A317CC647DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{A402E700-3591-4EDA-8BC3-14107C3AE6BA}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10728" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10738" uniqueCount="329">
   <si>
     <t>### Raspberry Pi / Mimic Control Unit</t>
   </si>
@@ -978,6 +978,36 @@
   <si>
     <t>Mounts motors in place. M1.6x4mm flat head hex screw (100 pack). Total of 20 screws required.</t>
   </si>
+  <si>
+    <t>### Required Tools</t>
+  </si>
+  <si>
+    <t>3D Printer</t>
+  </si>
+  <si>
+    <t>Small Phillips Head Screw Driver</t>
+  </si>
+  <si>
+    <t>Soldering Iron (if assembling boards)</t>
+  </si>
+  <si>
+    <t>### Useful Tools</t>
+  </si>
+  <si>
+    <t>Deburring Tool for cleaning up 3d prints</t>
+  </si>
+  <si>
+    <t>Drill bits for opening up plastic holes</t>
+  </si>
+  <si>
+    <t>Multimeter for debugging</t>
+  </si>
+  <si>
+    <t>Paint Pens / Airbrush for aesthetics</t>
+  </si>
+  <si>
+    <t>Caffeine</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367931D0-ED59-4F7E-83D2-734AFB569065}">
-  <dimension ref="A1:XFD176"/>
+  <dimension ref="A1:XFD188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="M179" sqref="M179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57427,6 +57457,56 @@
       </c>
       <c r="J176" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
